--- a/Product_Sprint_Backlog.xlsx
+++ b/Product_Sprint_Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\FATEC\ADS\6° Semestre\Lab ESw\TCC_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Não Iniciado</t>
   </si>
   <si>
-    <t>Criar método para gerar cobrança</t>
-  </si>
-  <si>
     <t>Product ID</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Érick</t>
+  </si>
+  <si>
+    <t>Verificar consulta no BD</t>
   </si>
 </sst>
 </file>
@@ -660,17 +660,17 @@
       <selection activeCell="B2" sqref="B2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="4" max="4" width="11.4140625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="36.08203125" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -700,12 +700,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="4" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" s="4" customFormat="1" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>80</v>
@@ -714,18 +714,18 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="4" customFormat="1" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="4" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>80</v>
@@ -734,18 +734,18 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>80</v>
@@ -754,18 +754,18 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="5" customFormat="1" ht="186" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -774,18 +774,18 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:7" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3">
         <v>80</v>
@@ -794,18 +794,18 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="6" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:7" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
         <v>80</v>
@@ -814,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -831,23 +831,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K47" sqref="A1:K47"/>
+      <selection activeCell="K45" sqref="A1:K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -862,9 +862,9 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -922,7 +922,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -931,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -945,7 +945,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -968,7 +968,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="1">
         <v>4</v>
@@ -977,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -991,7 +991,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="17">
         <v>5</v>
@@ -1000,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1014,8 +1014,8 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1030,9 +1030,9 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1090,16 +1090,16 @@
       <c r="J11" s="1"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1113,7 +1113,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="1">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1136,7 +1136,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="1">
         <v>4</v>
@@ -1145,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1159,7 +1159,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="17">
         <v>5</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
@@ -1182,8 +1182,8 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1198,9 +1198,9 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>3</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1258,7 +1258,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="1">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1281,7 +1281,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="1">
         <v>3</v>
@@ -1290,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1304,7 +1304,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="1">
         <v>4</v>
@@ -1313,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1327,7 +1327,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="17">
         <v>5</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="17">
         <v>1</v>
@@ -1350,8 +1350,8 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
@@ -1366,9 +1366,9 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>4</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1426,7 +1426,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="1">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1449,7 +1449,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="1">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1472,7 +1472,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="1">
         <v>4</v>
@@ -1481,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1495,7 +1495,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="17">
         <v>5</v>
@@ -1504,7 +1504,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="17">
         <v>1</v>
@@ -1518,8 +1518,8 @@
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>8</v>
       </c>
@@ -1534,9 +1534,9 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -1569,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>5</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1594,7 +1594,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="1">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -1617,7 +1617,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -1626,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1640,7 +1640,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="1">
         <v>4</v>
@@ -1649,7 +1649,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="17">
         <v>5</v>
@@ -1672,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
@@ -1686,8 +1686,8 @@
       <c r="J39" s="17"/>
       <c r="K39" s="18"/>
     </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>8</v>
       </c>
@@ -1702,9 +1702,9 @@
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
@@ -1737,7 +1737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>6</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1762,19 +1762,19 @@
       <c r="J43" s="1"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
@@ -1785,74 +1785,28 @@
       <c r="J44" s="1"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="1">
+    <row r="45" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>19</v>
+      <c r="C45" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="1">
+        <v>40</v>
+      </c>
+      <c r="E45" s="17">
         <v>1</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17">
-        <v>5</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="17">
-        <v>1</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="18"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
